--- a/doors-detector/results/house1_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
+++ b/doors-detector/results/house1_experimentk_ordered_CriterionType.MIN_CriterionSorting.DESCENDING.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8654539016263889</v>
+        <v>0.8848265123445583</v>
       </c>
       <c r="F5" t="n">
         <v>1010</v>
       </c>
       <c r="G5" t="n">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="H5" t="n">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5998376623376624</v>
+        <v>0.6238666519239275</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
@@ -632,7 +632,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6799366075486297</v>
+        <v>0.671709526972316</v>
       </c>
       <c r="F7" t="n">
         <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H7" t="n">
-        <v>134</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8447925313221566</v>
+        <v>0.891477215444375</v>
       </c>
       <c r="F8" t="n">
         <v>1010</v>
       </c>
       <c r="G8" t="n">
-        <v>884</v>
+        <v>920</v>
       </c>
       <c r="H8" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6875492928124507</v>
+        <v>0.8023815172591591</v>
       </c>
       <c r="F9" t="n">
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6785961881214621</v>
+        <v>0.7052210653459519</v>
       </c>
       <c r="F10" t="n">
         <v>82</v>
@@ -760,7 +760,7 @@
         <v>69</v>
       </c>
       <c r="H10" t="n">
-        <v>113</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8307712565687688</v>
+        <v>0.8478836206350799</v>
       </c>
       <c r="F11" t="n">
         <v>1010</v>
       </c>
       <c r="G11" t="n">
-        <v>874</v>
+        <v>885</v>
       </c>
       <c r="H11" t="n">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.766462144486338</v>
+        <v>0.8984384662956091</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6897271284130271</v>
+        <v>0.6844081374048208</v>
       </c>
       <c r="F13" t="n">
         <v>82</v>
       </c>
       <c r="G13" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H13" t="n">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8525486527668235</v>
+        <v>0.8888278327997307</v>
       </c>
       <c r="F14" t="n">
         <v>1010</v>
       </c>
       <c r="G14" t="n">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="H14" t="n">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.8250850340136054</v>
+        <v>0.8816589861751152</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
       </c>
       <c r="G15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7250430080496154</v>
+        <v>0.7798237608571461</v>
       </c>
       <c r="F16" t="n">
         <v>82</v>
@@ -952,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="H16" t="n">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8495415342074562</v>
+        <v>0.8867181097965265</v>
       </c>
       <c r="F17" t="n">
         <v>1010</v>
       </c>
       <c r="G17" t="n">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="H17" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7902495094147499</v>
+        <v>0.9044393619516774</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7485902574938033</v>
+        <v>0.7852613108407236</v>
       </c>
       <c r="F19" t="n">
         <v>82</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
